--- a/baza.xlsx
+++ b/baza.xlsx
@@ -1774,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/baza.xlsx
+++ b/baza.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\divingBell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DivingBell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="324">
   <si>
     <t>Masks</t>
   </si>
@@ -1362,30 +1362,6 @@
   </si>
   <si>
     <t>Semi-dry top design prevents water entry into tube. Large bore tube for easy breathing. Flexible, corrugated section drops snorkel from face when not in use ergonomic mouthpiece for added comfort purge valve at lowest point for effortless clearing cellphone-style removable clip. Valve: 1 down.</t>
-  </si>
-  <si>
-    <t>аванкрио</t>
-  </si>
-  <si>
-    <t>окраина</t>
-  </si>
-  <si>
-    <t>навар</t>
-  </si>
-  <si>
-    <t>овин</t>
-  </si>
-  <si>
-    <t>аркан</t>
-  </si>
-  <si>
-    <t>нрав</t>
-  </si>
-  <si>
-    <t>канва</t>
-  </si>
-  <si>
-    <t>икра</t>
   </si>
 </sst>
 </file>
@@ -1774,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,41 +1994,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>39</v>
       </c>
-      <c r="G33" t="s">
-        <v>324</v>
-      </c>
-      <c r="H33" t="s">
-        <v>325</v>
-      </c>
-      <c r="I33" t="s">
-        <v>326</v>
-      </c>
-      <c r="J33" t="s">
-        <v>327</v>
-      </c>
-      <c r="K33" t="s">
-        <v>328</v>
-      </c>
-      <c r="L33" t="s">
-        <v>329</v>
-      </c>
-      <c r="M33" t="s">
-        <v>330</v>
-      </c>
-      <c r="N33" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2069,7 +2021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>264</v>
       </c>
@@ -2077,22 +2029,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2109,7 +2061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>263</v>
       </c>
@@ -2117,17 +2069,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
